--- a/hhnk_threedi_tools/resources/model_settings_default.xlsx
+++ b/hhnk_threedi_tools/resources/model_settings_default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\Hydrologen_data\Data\02.modellen\model_test_v2\02_Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\Hydrologen_data\Data\github\jkaptein\hhnk-threedi-tools\hhnk_threedi_tools\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16173913-7860-4A9F-946F-D400A7C54A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2FD5D3-60C0-4024-B79D-415B22219693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>maximum_sim_time_step</t>
   </si>
@@ -51,9 +51,6 @@
     <t>initial_groundwater_level_file</t>
   </si>
   <si>
-    <t>initial_waterlevel</t>
-  </si>
-  <si>
     <t>epsg_code</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>start_time</t>
-  </si>
-  <si>
-    <t>initial_waterlevel_file</t>
   </si>
   <si>
     <t>sim_time_step</t>
@@ -519,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170822C-96C0-450A-813D-B7BC97529365}">
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:70" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,10 +571,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -592,10 +586,10 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -616,13 +610,13 @@
         <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>30</v>
@@ -636,46 +630,8 @@
       <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>300</v>
       </c>
@@ -688,122 +644,86 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
-        <v>-99</v>
+        <v>28992</v>
       </c>
       <c r="G2" s="1">
-        <v>28992</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2">
+        <v>42005</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="T2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>42005</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="U2" s="1">
+      <c r="U2" s="1"/>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>15</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
         <v>1</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
         <v>1</v>
       </c>
-      <c r="AD2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1">
+        <v>100</v>
+      </c>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hhnk_threedi_tools/resources/model_settings_default.xlsx
+++ b/hhnk_threedi_tools/resources/model_settings_default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\Hydrologen_data\Data\github\jkaptein\hhnk-threedi-tools\hhnk_threedi_tools\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2FD5D3-60C0-4024-B79D-415B22219693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D96E232-9583-4DF9-A15D-FF482D903AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>maximum_sim_time_step</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>initial_groundwater_level_type</t>
-  </si>
-  <si>
-    <t>water_level_ini_type</t>
   </si>
   <si>
     <t>grid_space</t>
@@ -513,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170822C-96C0-450A-813D-B7BC97529365}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,10 +565,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
@@ -583,10 +580,10 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>21</v>
@@ -607,10 +604,10 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>28</v>
@@ -627,11 +624,8 @@
       <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>300</v>
       </c>
@@ -659,71 +653,68 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
         <v>40</v>
       </c>
-      <c r="P2" s="2">
+      <c r="O2" s="2">
         <v>42005</v>
       </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="1">
+        <v>0.02</v>
+      </c>
       <c r="S2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="T2" s="1">
         <v>1</v>
       </c>
-      <c r="U2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W2" s="1">
-        <v>15</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="X2" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
         <v>1</v>
       </c>
-      <c r="AB2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1</v>
-      </c>
+      <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1">
+      <c r="AH2" s="1">
         <v>100</v>
       </c>
-      <c r="AJ2" s="1"/>
+      <c r="AI2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hhnk_threedi_tools/resources/model_settings_default.xlsx
+++ b/hhnk_threedi_tools/resources/model_settings_default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\Hydrologen_data\Data\github\jkaptein\hhnk-threedi-tools\hhnk_threedi_tools\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D96E232-9583-4DF9-A15D-FF482D903AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BB2B92-D55F-4CB9-B818-979980F48B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>maximum_sim_time_step</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>max_interception</t>
+  </si>
+  <si>
+    <t>initial_waterlevel_file</t>
   </si>
 </sst>
 </file>
@@ -510,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170822C-96C0-450A-813D-B7BC97529365}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,10 +625,13 @@
         <v>31</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>300</v>
       </c>
@@ -715,6 +721,7 @@
         <v>100</v>
       </c>
       <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hhnk_threedi_tools/resources/model_settings_default.xlsx
+++ b/hhnk_threedi_tools/resources/model_settings_default.xlsx
@@ -1,40 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\Hydrologen_data\Data\github\jkaptein\hhnk-threedi-tools\hhnk_threedi_tools\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02.modellen\LangeWeerenToekomstHHNK\02_schematisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BB2B92-D55F-4CB9-B818-979980F48B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9D1EF0-B661-4EC8-9F23-4335C93A583A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21780" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>maximum_sim_time_step</t>
   </si>
@@ -51,6 +37,9 @@
     <t>initial_groundwater_level_file</t>
   </si>
   <si>
+    <t>initial_waterlevel</t>
+  </si>
+  <si>
     <t>epsg_code</t>
   </si>
   <si>
@@ -66,6 +55,9 @@
     <t>initial_groundwater_level_type</t>
   </si>
   <si>
+    <t>water_level_ini_type</t>
+  </si>
+  <si>
     <t>grid_space</t>
   </si>
   <si>
@@ -81,19 +73,25 @@
     <t>start_date</t>
   </si>
   <si>
+    <t>max_interception_file</t>
+  </si>
+  <si>
+    <t>interflow_settings_id</t>
+  </si>
+  <si>
+    <t>table_step_size</t>
+  </si>
+  <si>
+    <t>use_1d_flow</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
     <t>initial_groundwater_level</t>
   </si>
   <si>
-    <t>interflow_settings_id</t>
-  </si>
-  <si>
-    <t>table_step_size</t>
-  </si>
-  <si>
-    <t>use_1d_flow</t>
-  </si>
-  <si>
-    <t>start_time</t>
+    <t>initial_waterlevel_file</t>
   </si>
   <si>
     <t>sim_time_step</t>
@@ -117,6 +115,9 @@
     <t>frict_type</t>
   </si>
   <si>
+    <t>max_interception</t>
+  </si>
+  <si>
     <t>max_angle_1d_advection</t>
   </si>
   <si>
@@ -135,25 +136,118 @@
     <t>table_step_size_1d</t>
   </si>
   <si>
-    <t>max_interception_file</t>
-  </si>
-  <si>
-    <t>max_interception</t>
-  </si>
-  <si>
-    <t>initial_waterlevel_file</t>
+    <t>Unnamed: 39</t>
+  </si>
+  <si>
+    <t>Unnamed: 40</t>
+  </si>
+  <si>
+    <t>Unnamed: 41</t>
+  </si>
+  <si>
+    <t>Unnamed: 42</t>
+  </si>
+  <si>
+    <t>Unnamed: 43</t>
+  </si>
+  <si>
+    <t>Unnamed: 44</t>
+  </si>
+  <si>
+    <t>Unnamed: 45</t>
+  </si>
+  <si>
+    <t>Unnamed: 46</t>
+  </si>
+  <si>
+    <t>Unnamed: 47</t>
+  </si>
+  <si>
+    <t>Unnamed: 48</t>
+  </si>
+  <si>
+    <t>Unnamed: 49</t>
+  </si>
+  <si>
+    <t>Unnamed: 50</t>
+  </si>
+  <si>
+    <t>Unnamed: 51</t>
+  </si>
+  <si>
+    <t>Unnamed: 52</t>
+  </si>
+  <si>
+    <t>Unnamed: 53</t>
+  </si>
+  <si>
+    <t>Unnamed: 54</t>
+  </si>
+  <si>
+    <t>Unnamed: 55</t>
+  </si>
+  <si>
+    <t>Unnamed: 56</t>
+  </si>
+  <si>
+    <t>Unnamed: 57</t>
+  </si>
+  <si>
+    <t>Unnamed: 58</t>
+  </si>
+  <si>
+    <t>Unnamed: 59</t>
+  </si>
+  <si>
+    <t>Unnamed: 60</t>
+  </si>
+  <si>
+    <t>Unnamed: 61</t>
+  </si>
+  <si>
+    <t>Unnamed: 62</t>
+  </si>
+  <si>
+    <t>Unnamed: 63</t>
+  </si>
+  <si>
+    <t>Unnamed: 64</t>
+  </si>
+  <si>
+    <t>Unnamed: 65</t>
+  </si>
+  <si>
+    <t>Unnamed: 66</t>
+  </si>
+  <si>
+    <t>Unnamed: 67</t>
+  </si>
+  <si>
+    <t>Unnamed: 68</t>
+  </si>
+  <si>
+    <t>Unnamed: 69</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,16 +268,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -193,18 +287,16 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -217,7 +309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -227,44 +319,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -291,32 +383,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -343,24 +417,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,218 +428,239 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170822C-96C0-450A-813D-B7BC97529365}">
-  <dimension ref="A1:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>20</v>
@@ -607,123 +684,228 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>32</v>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>300</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2">
         <v>999999</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2">
         <v>0.01</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
+      <c r="G2">
+        <v>-99</v>
+      </c>
+      <c r="H2">
         <v>28992</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>20</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>40</v>
       </c>
-      <c r="O2" s="2">
+      <c r="R2" s="2">
         <v>42005</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1">
+      <c r="U2">
         <v>0.02</v>
       </c>
-      <c r="S2" s="1">
+      <c r="V2">
         <v>1</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>15</v>
       </c>
-      <c r="W2" s="1">
+      <c r="AA2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>1</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AE2">
         <v>0.01</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AF2">
         <v>2</v>
       </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>1</v>
       </c>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1">
+      <c r="AL2">
         <v>100</v>
       </c>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/hhnk_threedi_tools/resources/model_settings_default.xlsx
+++ b/hhnk_threedi_tools/resources/model_settings_default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\Hydrologen_data\Data\02.modellen\model_test_v2\02_Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hhnk.nl\data\hydrologen_data\Data\github\wvangerwen\hhnk-threedi-tools\hhnk_threedi_tools\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16173913-7860-4A9F-946F-D400A7C54A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FD6136-5C6D-4631-A165-DA252A4D4996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{1B3E74DF-8504-4A9A-9382-ED86C57E9482}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>maximum_sim_time_step</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>initial_groundwater_level_type</t>
-  </si>
-  <si>
-    <t>water_level_ini_type</t>
   </si>
   <si>
     <t>grid_space</t>
@@ -519,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170822C-96C0-450A-813D-B7BC97529365}">
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:70" ht="45" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,10 +574,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -592,10 +589,10 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>22</v>
@@ -619,10 +616,10 @@
         <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>30</v>
@@ -639,43 +636,8 @@
       <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>300</v>
       </c>
@@ -706,104 +668,69 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
         <v>40</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="P2" s="2">
         <v>42005</v>
       </c>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1">
+        <v>0.02</v>
+      </c>
       <c r="T2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="U2" s="1">
         <v>1</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
+        <v>15</v>
+      </c>
       <c r="Y2" s="1">
-        <v>15</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Z2" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
         <v>0</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
         <v>1</v>
       </c>
-      <c r="AD2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>1</v>
-      </c>
+      <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1">
+      <c r="AJ2" s="1">
         <v>100</v>
       </c>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="1"/>
+      <c r="AK2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
